--- a/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
+++ b/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Dollar General</t>
   </si>
   <si>
+    <t xml:space="preserve">Dollar General Market</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family Dollar</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Napkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabletop</t>
   </si>
 </sst>
 </file>
@@ -161,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -172,7 +178,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -183,24 +189,30 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>3</v>
@@ -209,26 +221,32 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>5</v>
@@ -239,10 +257,13 @@
       <c r="D5" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -251,6 +272,26 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
+++ b/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
@@ -170,7 +170,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -278,12 +278,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>6</v>

--- a/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
+++ b/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
@@ -170,13 +170,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -286,7 +283,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>5</v>

--- a/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
+++ b/Projects/GPUS/Data/Jump_Shelves_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Dollar General</t>
   </si>
@@ -34,6 +34,15 @@
     <t xml:space="preserve">Walmart</t>
   </si>
   <si>
+    <t xml:space="preserve">Albertsons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safeway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safeway Store</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toilet Paper</t>
   </si>
   <si>
@@ -47,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Napkins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabletop</t>
   </si>
 </sst>
 </file>
@@ -137,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -147,6 +153,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,13 +177,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.51530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -189,106 +206,143 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="F2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="F3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>5</v>
       </c>
     </row>
